--- a/Manage/upload_file/组-学号-动作.xlsx
+++ b/Manage/upload_file/组-学号-动作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="18645" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
   <si>
     <t>task_admin</t>
   </si>
@@ -27,14 +27,23 @@
   <si>
     <t>20653W111</t>
   </si>
+  <si>
+    <t>late_admin</t>
+  </si>
+  <si>
+    <t>health_admin</t>
+  </si>
+  <si>
+    <t>task_data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -89,7 +98,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,110 +227,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,21 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,37 +250,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,19 +328,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,121 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,17 +455,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,15 +500,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,7 +523,36 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,8 +1064,8 @@
   <sheetPr/>
   <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1197,25 +1206,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>19510146</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>19510146</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>19510146</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>19510146</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>19510146</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2"/>

--- a/Manage/upload_file/组-学号-动作.xlsx
+++ b/Manage/upload_file/组-学号-动作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18645" windowHeight="9195"/>
+    <workbookView windowWidth="19200" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
   <si>
     <t>task_admin</t>
   </si>
@@ -42,8 +42,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -98,14 +98,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,36 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -157,68 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,20 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,13 +250,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,13 +346,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,139 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,21 +460,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -485,21 +470,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,8 +501,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,8 +510,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,16 +1062,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C394"/>
+  <dimension ref="A1:D394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="14.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1217,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1227,6 +1228,7 @@
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
@@ -1239,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1249,6 +1251,7 @@
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
@@ -1261,48 +1264,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="2"/>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>19510112</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>206510225</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>206510242</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>206510102</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>206510105</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="2"/>
+    <row r="25" spans="3:3">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="2"/>
+    <row r="26" spans="3:3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="2"/>
+    <row r="27" spans="3:3">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="2"/>
+    <row r="28" spans="3:3">
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="2:3">
